--- a/PIN/Données/pin.xlsx
+++ b/PIN/Données/pin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pierr\Dropbox\Rakuten Kobo\Session 5\Laboratoire 3\Github-labo-3\PIN\Données\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27199F11-BFC0-4749-9969-5DEFDDDE7386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B5D9B2-EAC6-4AE4-B1F7-211B77BE4C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22296" windowHeight="13176" xr2:uid="{A4272800-3178-4B31-BFE0-8DF34A713185}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A4272800-3178-4B31-BFE0-8DF34A713185}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>Compte A</t>
   </si>
@@ -57,6 +55,54 @@
   </si>
   <si>
     <t>Coincident</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>N_A</t>
+  </si>
+  <si>
+    <t>N_B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Zéros</t>
+  </si>
+  <si>
+    <t>N_article</t>
+  </si>
+  <si>
+    <t>Calcul S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Données de S </t>
+  </si>
+  <si>
+    <t>Article</t>
+  </si>
+  <si>
+    <t>E(a,b)</t>
+  </si>
+  <si>
+    <t>E(a,b')</t>
+  </si>
+  <si>
+    <t>E(a',b)</t>
+  </si>
+  <si>
+    <t>E(a',b')</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>1er essaie</t>
   </si>
 </sst>
 </file>
@@ -115,7 +161,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1200,7 +1246,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="938390016"/>
@@ -1262,7 +1308,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="937866720"/>
@@ -1304,7 +1350,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1341,7 +1387,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1950,7 +1996,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2246,15 +2292,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCC664F-9DDD-4A05-9450-B1F07A2EDD41}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2268,7 +2317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2297,7 +2346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2329,7 +2378,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>10</v>
       </c>
@@ -2361,7 +2410,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>20</v>
       </c>
@@ -2393,7 +2442,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>30</v>
       </c>
@@ -2425,7 +2474,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>40</v>
       </c>
@@ -2457,7 +2506,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>50</v>
       </c>
@@ -2489,7 +2538,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>60</v>
       </c>
@@ -2521,7 +2570,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>70</v>
       </c>
@@ -2553,7 +2602,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>80</v>
       </c>
@@ -2585,7 +2634,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>90</v>
       </c>
@@ -2617,7 +2666,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>100</v>
       </c>
@@ -2649,7 +2698,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>110</v>
       </c>
@@ -2681,7 +2730,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>120</v>
       </c>
@@ -2713,7 +2762,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>130</v>
       </c>
@@ -2745,7 +2794,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>140</v>
       </c>
@@ -2777,7 +2826,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>150</v>
       </c>
@@ -2809,7 +2858,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>160</v>
       </c>
@@ -2841,7 +2890,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>170</v>
       </c>
@@ -2873,7 +2922,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>180</v>
       </c>
@@ -2903,6 +2952,347 @@
       </c>
       <c r="J21" s="1">
         <v>1323</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <f>N30 - 45</f>
+        <v>17.5</v>
+      </c>
+      <c r="B26">
+        <f>O30 - 22.5</f>
+        <v>5.5</v>
+      </c>
+      <c r="C26" s="1">
+        <v>38865</v>
+      </c>
+      <c r="D26" s="1">
+        <v>45241</v>
+      </c>
+      <c r="E26" s="1">
+        <v>738</v>
+      </c>
+      <c r="G26" s="1">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <f>N30-45</f>
+        <v>17.5</v>
+      </c>
+      <c r="B27">
+        <f>O30+22.5</f>
+        <v>50.5</v>
+      </c>
+      <c r="C27" s="1">
+        <v>37835</v>
+      </c>
+      <c r="D27" s="1">
+        <v>47591</v>
+      </c>
+      <c r="E27" s="1">
+        <v>502</v>
+      </c>
+      <c r="G27" s="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <f>N30-45</f>
+        <v>17.5</v>
+      </c>
+      <c r="B28">
+        <f>O30+67.5</f>
+        <v>95.5</v>
+      </c>
+      <c r="C28">
+        <v>38652</v>
+      </c>
+      <c r="D28">
+        <v>56259</v>
+      </c>
+      <c r="E28">
+        <v>670</v>
+      </c>
+      <c r="G28">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <f>N30-45</f>
+        <v>17.5</v>
+      </c>
+      <c r="B29">
+        <f>O30+112.5</f>
+        <v>140.5</v>
+      </c>
+      <c r="C29">
+        <v>38724</v>
+      </c>
+      <c r="D29">
+        <v>60370</v>
+      </c>
+      <c r="E29">
+        <v>995</v>
+      </c>
+      <c r="G29">
+        <v>836</v>
+      </c>
+      <c r="M29" t="s">
+        <v>12</v>
+      </c>
+      <c r="N29" t="s">
+        <v>7</v>
+      </c>
+      <c r="O29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <f xml:space="preserve"> N30 - 0</f>
+        <v>62.5</v>
+      </c>
+      <c r="B30">
+        <f xml:space="preserve"> O30 - 22.5</f>
+        <v>5.5</v>
+      </c>
+      <c r="C30">
+        <v>35340</v>
+      </c>
+      <c r="D30">
+        <v>45378</v>
+      </c>
+      <c r="E30">
+        <v>817</v>
+      </c>
+      <c r="G30">
+        <v>891</v>
+      </c>
+      <c r="N30">
+        <v>62.5</v>
+      </c>
+      <c r="O30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <f xml:space="preserve"> N30 - 0</f>
+        <v>62.5</v>
+      </c>
+      <c r="B31">
+        <f xml:space="preserve"> O30 +22.5</f>
+        <v>50.5</v>
+      </c>
+      <c r="C31">
+        <v>35908</v>
+      </c>
+      <c r="D31">
+        <v>48310</v>
+      </c>
+      <c r="E31">
+        <v>1151</v>
+      </c>
+      <c r="G31">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <f xml:space="preserve"> N30 - 0</f>
+        <v>62.5</v>
+      </c>
+      <c r="B32">
+        <f>O30+67.5</f>
+        <v>95.5</v>
+      </c>
+      <c r="G32">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <f xml:space="preserve"> N30 - 0</f>
+        <v>62.5</v>
+      </c>
+      <c r="B33">
+        <f>O30+112.5</f>
+        <v>140.5</v>
+      </c>
+      <c r="G33">
+        <v>261</v>
+      </c>
+      <c r="M33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <f xml:space="preserve"> N30 + 45</f>
+        <v>107.5</v>
+      </c>
+      <c r="B34">
+        <f>O30 - 22.5</f>
+        <v>5.5</v>
+      </c>
+      <c r="G34">
+        <v>255</v>
+      </c>
+      <c r="M34" t="s">
+        <v>16</v>
+      </c>
+      <c r="N34" t="s">
+        <v>17</v>
+      </c>
+      <c r="O34" t="s">
+        <v>18</v>
+      </c>
+      <c r="P34" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <f xml:space="preserve"> N30 + 45</f>
+        <v>107.5</v>
+      </c>
+      <c r="B35">
+        <f>O30+22.5</f>
+        <v>50.5</v>
+      </c>
+      <c r="G35">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <f xml:space="preserve"> N30 + 45</f>
+        <v>107.5</v>
+      </c>
+      <c r="B36">
+        <f>O30+67.5</f>
+        <v>95.5</v>
+      </c>
+      <c r="G36">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <f xml:space="preserve"> N30 + 45</f>
+        <v>107.5</v>
+      </c>
+      <c r="B37">
+        <f>O30+112.5</f>
+        <v>140.5</v>
+      </c>
+      <c r="G37">
+        <v>221</v>
+      </c>
+      <c r="M37" t="s">
+        <v>22</v>
+      </c>
+      <c r="N37" t="s">
+        <v>17</v>
+      </c>
+      <c r="O37" t="s">
+        <v>18</v>
+      </c>
+      <c r="P37" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <f>N30 + 90</f>
+        <v>152.5</v>
+      </c>
+      <c r="B38">
+        <f>O30 - 22.5</f>
+        <v>5.5</v>
+      </c>
+      <c r="G38">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <f>N30 + 90</f>
+        <v>152.5</v>
+      </c>
+      <c r="B39">
+        <f>O30+22.5</f>
+        <v>50.5</v>
+      </c>
+      <c r="G39">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <f>N30 + 90</f>
+        <v>152.5</v>
+      </c>
+      <c r="B40">
+        <f>O30+67.5</f>
+        <v>95.5</v>
+      </c>
+      <c r="G40">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <f>N30 + 90</f>
+        <v>152.5</v>
+      </c>
+      <c r="B41">
+        <f>O30+112.5</f>
+        <v>140.5</v>
+      </c>
+      <c r="G41">
+        <v>846</v>
       </c>
     </row>
   </sheetData>

--- a/PIN/Données/pin.xlsx
+++ b/PIN/Données/pin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pierr\Dropbox\Rakuten Kobo\Session 5\Laboratoire 3\Github-labo-3\PIN\Données\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B5D9B2-EAC6-4AE4-B1F7-211B77BE4C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D21F4A-E0EB-4183-ACD8-AFBFAA3A886E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A4272800-3178-4B31-BFE0-8DF34A713185}"/>
   </bookViews>
@@ -2295,7 +2295,7 @@
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3135,6 +3135,15 @@
         <f>O30+67.5</f>
         <v>95.5</v>
       </c>
+      <c r="C32">
+        <v>35860</v>
+      </c>
+      <c r="D32">
+        <v>56343</v>
+      </c>
+      <c r="E32">
+        <v>338</v>
+      </c>
       <c r="G32">
         <v>173</v>
       </c>
@@ -3148,6 +3157,15 @@
         <f>O30+112.5</f>
         <v>140.5</v>
       </c>
+      <c r="C33">
+        <v>36187</v>
+      </c>
+      <c r="D33">
+        <v>59291</v>
+      </c>
+      <c r="E33">
+        <v>101</v>
+      </c>
       <c r="G33">
         <v>261</v>
       </c>
@@ -3164,6 +3182,15 @@
         <f>O30 - 22.5</f>
         <v>5.5</v>
       </c>
+      <c r="C34">
+        <v>42435</v>
+      </c>
+      <c r="D34">
+        <v>45111</v>
+      </c>
+      <c r="E34">
+        <v>448</v>
+      </c>
       <c r="G34">
         <v>255</v>
       </c>
@@ -3195,6 +3222,15 @@
         <f>O30+22.5</f>
         <v>50.5</v>
       </c>
+      <c r="C35">
+        <v>42442</v>
+      </c>
+      <c r="D35">
+        <v>48531</v>
+      </c>
+      <c r="E35">
+        <v>810</v>
+      </c>
       <c r="G35">
         <v>830</v>
       </c>
@@ -3208,6 +3244,15 @@
         <f>O30+67.5</f>
         <v>95.5</v>
       </c>
+      <c r="C36">
+        <v>42059</v>
+      </c>
+      <c r="D36">
+        <v>56205</v>
+      </c>
+      <c r="E36">
+        <v>977</v>
+      </c>
       <c r="G36">
         <v>814</v>
       </c>
@@ -3221,6 +3266,15 @@
         <f>O30+112.5</f>
         <v>140.5</v>
       </c>
+      <c r="C37">
+        <v>42497</v>
+      </c>
+      <c r="D37">
+        <v>60076</v>
+      </c>
+      <c r="E37">
+        <v>667</v>
+      </c>
       <c r="G37">
         <v>221</v>
       </c>
@@ -3252,6 +3306,15 @@
         <f>O30 - 22.5</f>
         <v>5.5</v>
       </c>
+      <c r="C38">
+        <v>39239</v>
+      </c>
+      <c r="D38">
+        <v>44854</v>
+      </c>
+      <c r="E38">
+        <v>221</v>
+      </c>
       <c r="G38">
         <v>170</v>
       </c>
@@ -3265,6 +3328,15 @@
         <f>O30+22.5</f>
         <v>50.5</v>
       </c>
+      <c r="C39">
+        <v>39520</v>
+      </c>
+      <c r="D39">
+        <v>48378</v>
+      </c>
+      <c r="E39">
+        <v>780</v>
+      </c>
       <c r="G39">
         <v>259</v>
       </c>
@@ -3278,6 +3350,15 @@
         <f>O30+67.5</f>
         <v>95.5</v>
       </c>
+      <c r="C40">
+        <v>39235</v>
+      </c>
+      <c r="D40">
+        <v>55742</v>
+      </c>
+      <c r="E40">
+        <v>893</v>
+      </c>
       <c r="G40">
         <v>969</v>
       </c>
@@ -3290,6 +3371,15 @@
       <c r="B41">
         <f>O30+112.5</f>
         <v>140.5</v>
+      </c>
+      <c r="C41">
+        <v>39334</v>
+      </c>
+      <c r="D41">
+        <v>59541</v>
+      </c>
+      <c r="E41">
+        <v>1212</v>
       </c>
       <c r="G41">
         <v>846</v>

--- a/PIN/Données/pin.xlsx
+++ b/PIN/Données/pin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pierr\Dropbox\Rakuten Kobo\Session 5\Laboratoire 3\Github-labo-3\PIN\Données\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Dropbox\Scolaire\UdeM\Session 5\PHY3040\Github-labo-3\PIN\Données\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D21F4A-E0EB-4183-ACD8-AFBFAA3A886E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421FAED3-D6F8-42C2-9BA8-12529CC5B418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A4272800-3178-4B31-BFE0-8DF34A713185}"/>
+    <workbookView xWindow="12192" yWindow="3024" windowWidth="17280" windowHeight="11652" xr2:uid="{A4272800-3178-4B31-BFE0-8DF34A713185}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Compte A</t>
   </si>
@@ -104,6 +104,18 @@
   <si>
     <t>1er essaie</t>
   </si>
+  <si>
+    <t>Décalage</t>
+  </si>
+  <si>
+    <t>Prise de mesure sur 180° pour 0°, 45°, 90°, 135°</t>
+  </si>
+  <si>
+    <t>90°</t>
+  </si>
+  <si>
+    <t>135°</t>
+  </si>
 </sst>
 </file>
 
@@ -138,9 +150,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -161,7 +179,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1246,7 +1264,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="938390016"/>
@@ -1308,7 +1326,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="937866720"/>
@@ -1350,7 +1368,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1387,7 +1405,799 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$30:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>144.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$30:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>848</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1202</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>157</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DF11-4C25-AE24-D80490A70CBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>90°</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$38:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>144.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$38:$E$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1688</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DF11-4C25-AE24-D80490A70CBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="969650479"/>
+        <c:axId val="969643407"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="969650479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="969643407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="969643407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="969650479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.50392129186113022"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$26:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>144.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$26:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>1009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BF9B-4EE6-8ACD-956BEF5CD485}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>135°</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$34:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>144.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$34:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>712</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>839</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>644</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BF9B-4EE6-8ACD-956BEF5CD485}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="964022143"/>
+        <c:axId val="964019647"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="964022143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="964019647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="964019647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="964022143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1438,6 +2248,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1954,20 +2844,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>331470</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>158115</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1992,11 +3914,83 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523223</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>8023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>435089</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>16782</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BCAC63E-683F-218C-4D1F-A9D7E03488EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114333</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>43793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>105103</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>131378</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10427D6F-F75D-AD17-087D-28A237C416B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2292,18 +4286,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCC664F-9DDD-4A05-9450-B1F07A2EDD41}">
-  <dimension ref="A1:R41"/>
+  <dimension ref="A1:X127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2317,7 +4311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2346,7 +4340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2378,7 +4372,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10</v>
       </c>
@@ -2410,7 +4404,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>20</v>
       </c>
@@ -2442,7 +4436,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>30</v>
       </c>
@@ -2474,7 +4468,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>40</v>
       </c>
@@ -2506,7 +4500,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>50</v>
       </c>
@@ -2538,7 +4532,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>60</v>
       </c>
@@ -2570,7 +4564,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>70</v>
       </c>
@@ -2602,7 +4596,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>80</v>
       </c>
@@ -2634,7 +4628,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>90</v>
       </c>
@@ -2666,7 +4660,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>100</v>
       </c>
@@ -2698,7 +4692,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>110</v>
       </c>
@@ -2730,7 +4724,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>120</v>
       </c>
@@ -2762,7 +4756,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>130</v>
       </c>
@@ -2794,7 +4788,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>140</v>
       </c>
@@ -2826,7 +4820,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>150</v>
       </c>
@@ -2858,7 +4852,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>160</v>
       </c>
@@ -2890,7 +4884,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>170</v>
       </c>
@@ -2922,7 +4916,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>180</v>
       </c>
@@ -2954,12 +4948,12 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -2979,89 +4973,69 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26">
-        <f>N30 - 45</f>
-        <v>17.5</v>
+        <f>$N$30 - 45</f>
+        <v>19</v>
       </c>
       <c r="B26">
-        <f>O30 - 22.5</f>
-        <v>5.5</v>
-      </c>
-      <c r="C26" s="1">
-        <v>38865</v>
-      </c>
-      <c r="D26" s="1">
-        <v>45241</v>
-      </c>
+        <f>$O$30 +$Q$31</f>
+        <v>9.5</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
       <c r="E26" s="1">
-        <v>738</v>
+        <v>588</v>
       </c>
       <c r="G26" s="1">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27">
-        <f>N30-45</f>
-        <v>17.5</v>
+        <f t="shared" ref="A27:A29" si="0">$N$30 - 45</f>
+        <v>19</v>
       </c>
       <c r="B27">
-        <f>O30+22.5</f>
-        <v>50.5</v>
-      </c>
-      <c r="C27" s="1">
-        <v>37835</v>
-      </c>
-      <c r="D27" s="1">
-        <v>47591</v>
-      </c>
+        <f>$O$30+$R$31</f>
+        <v>54.5</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
       <c r="E27" s="1">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G27" s="1">
         <v>212</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28">
-        <f>N30-45</f>
-        <v>17.5</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="B28">
-        <f>O30+67.5</f>
-        <v>95.5</v>
-      </c>
-      <c r="C28">
-        <v>38652</v>
-      </c>
-      <c r="D28">
-        <v>56259</v>
+        <f>$O$30+$S$31</f>
+        <v>99.5</v>
       </c>
       <c r="E28">
-        <v>670</v>
+        <v>605</v>
       </c>
       <c r="G28">
         <v>302</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29">
-        <f>N30-45</f>
-        <v>17.5</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="B29">
-        <f>O30+112.5</f>
-        <v>140.5</v>
-      </c>
-      <c r="C29">
-        <v>38724</v>
-      </c>
-      <c r="D29">
-        <v>60370</v>
+        <f>$O$30+$T$31</f>
+        <v>144.5</v>
       </c>
       <c r="E29">
-        <v>995</v>
+        <v>1009</v>
       </c>
       <c r="G29">
         <v>836</v>
@@ -3075,96 +5049,99 @@
       <c r="O29" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30">
-        <f xml:space="preserve"> N30 - 0</f>
-        <v>62.5</v>
+        <f xml:space="preserve"> $N$30 - 0</f>
+        <v>64</v>
       </c>
       <c r="B30">
-        <f xml:space="preserve"> O30 - 22.5</f>
-        <v>5.5</v>
-      </c>
-      <c r="C30">
-        <v>35340</v>
-      </c>
-      <c r="D30">
-        <v>45378</v>
+        <f t="shared" ref="B30" si="1">$O$30 +$Q$31</f>
+        <v>9.5</v>
       </c>
       <c r="E30">
-        <v>817</v>
+        <v>848</v>
       </c>
       <c r="G30">
         <v>891</v>
       </c>
       <c r="N30">
-        <v>62.5</v>
+        <v>64</v>
       </c>
       <c r="O30">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="Q30">
+        <v>-45</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>45</v>
+      </c>
+      <c r="T30">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31">
-        <f xml:space="preserve"> N30 - 0</f>
-        <v>62.5</v>
+        <f t="shared" ref="A31:A33" si="2" xml:space="preserve"> $N$30 - 0</f>
+        <v>64</v>
       </c>
       <c r="B31">
-        <f xml:space="preserve"> O30 +22.5</f>
-        <v>50.5</v>
-      </c>
-      <c r="C31">
-        <v>35908</v>
-      </c>
-      <c r="D31">
-        <v>48310</v>
+        <f t="shared" ref="B31" si="3">$O$30+$R$31</f>
+        <v>54.5</v>
       </c>
       <c r="E31">
-        <v>1151</v>
+        <v>1202</v>
       </c>
       <c r="G31">
         <v>869</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q31">
+        <v>-22.5</v>
+      </c>
+      <c r="R31">
+        <v>22.5</v>
+      </c>
+      <c r="S31">
+        <v>67.5</v>
+      </c>
+      <c r="T31">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32">
-        <f xml:space="preserve"> N30 - 0</f>
-        <v>62.5</v>
+        <f t="shared" si="2"/>
+        <v>64</v>
       </c>
       <c r="B32">
-        <f>O30+67.5</f>
-        <v>95.5</v>
-      </c>
-      <c r="C32">
-        <v>35860</v>
-      </c>
-      <c r="D32">
-        <v>56343</v>
+        <f t="shared" ref="B32" si="4">$O$30+$S$31</f>
+        <v>99.5</v>
       </c>
       <c r="E32">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="G32">
         <v>173</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33">
-        <f xml:space="preserve"> N30 - 0</f>
-        <v>62.5</v>
+        <f t="shared" si="2"/>
+        <v>64</v>
       </c>
       <c r="B33">
-        <f>O30+112.5</f>
-        <v>140.5</v>
-      </c>
-      <c r="C33">
-        <v>36187</v>
-      </c>
-      <c r="D33">
-        <v>59291</v>
+        <f t="shared" ref="B33" si="5">$O$30+$T$31</f>
+        <v>144.5</v>
       </c>
       <c r="E33">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="G33">
         <v>261</v>
@@ -3173,23 +5150,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34">
-        <f xml:space="preserve"> N30 + 45</f>
-        <v>107.5</v>
+        <f xml:space="preserve"> $N$30 + 45</f>
+        <v>109</v>
       </c>
       <c r="B34">
-        <f>O30 - 22.5</f>
-        <v>5.5</v>
-      </c>
-      <c r="C34">
-        <v>42435</v>
-      </c>
-      <c r="D34">
-        <v>45111</v>
+        <f t="shared" ref="B34" si="6">$O$30 +$Q$31</f>
+        <v>9.5</v>
       </c>
       <c r="E34">
-        <v>448</v>
+        <v>389</v>
       </c>
       <c r="G34">
         <v>255</v>
@@ -3212,180 +5183,1179 @@
       <c r="R34" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S34" t="s">
+        <v>22</v>
+      </c>
+      <c r="T34" t="s">
+        <v>17</v>
+      </c>
+      <c r="U34" t="s">
+        <v>18</v>
+      </c>
+      <c r="V34" t="s">
+        <v>19</v>
+      </c>
+      <c r="W34" t="s">
+        <v>20</v>
+      </c>
+      <c r="X34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35">
-        <f xml:space="preserve"> N30 + 45</f>
-        <v>107.5</v>
+        <f t="shared" ref="A35:A37" si="7" xml:space="preserve"> $N$30 + 45</f>
+        <v>109</v>
       </c>
       <c r="B35">
-        <f>O30+22.5</f>
-        <v>50.5</v>
-      </c>
-      <c r="C35">
-        <v>42442</v>
-      </c>
-      <c r="D35">
-        <v>48531</v>
+        <f t="shared" ref="B35" si="8">$O$30+$R$31</f>
+        <v>54.5</v>
       </c>
       <c r="E35">
-        <v>810</v>
+        <v>712</v>
       </c>
       <c r="G35">
         <v>830</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="N35" s="1">
+        <f>(G27+G37-G29-G35)/(G27+G29+G35+G37)</f>
+        <v>-0.58742258218199139</v>
+      </c>
+      <c r="O35" s="1">
+        <f>(G26+G36-G28-G34)/(G26+G28+G34+G36)</f>
+        <v>0.4966109353818346</v>
+      </c>
+      <c r="P35">
+        <f>(G31+G41-G33-G39)/(G31+G33+G39+G41)</f>
+        <v>0.53467561521252793</v>
+      </c>
+      <c r="Q35">
+        <f>(G30+G40-G32-G38)/(G30+G32+G38+G40)</f>
+        <v>0.68860644575578756</v>
+      </c>
+      <c r="R35" s="1">
+        <f>ABS(N35-O35)+ABS(P35+Q35)</f>
+        <v>2.3073155785321413</v>
+      </c>
+      <c r="T35" s="1">
+        <f>(E27+E37-E29-E35)/(E27+E29+E35+E37)</f>
+        <v>-0.2026554856743536</v>
+      </c>
+      <c r="U35" s="1">
+        <f>(E26+E36-E28-E34)/(E26+E28+E34+E36)</f>
+        <v>0.17885171416769929</v>
+      </c>
+      <c r="V35">
+        <f>(E31+E41-E33-E39)/(E31+E33+E39+E41)</f>
+        <v>0.81679819616685456</v>
+      </c>
+      <c r="W35">
+        <f>(E30+E40-E32-E38)/(E30+E32+E38+E40)</f>
+        <v>0.54304837237602677</v>
+      </c>
+      <c r="X35" s="1">
+        <f>ABS(T35-U35)+ABS(V35+W35)</f>
+        <v>1.7413537683849343</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36">
-        <f xml:space="preserve"> N30 + 45</f>
-        <v>107.5</v>
+        <f t="shared" si="7"/>
+        <v>109</v>
       </c>
       <c r="B36">
-        <f>O30+67.5</f>
-        <v>95.5</v>
-      </c>
-      <c r="C36">
-        <v>42059</v>
-      </c>
-      <c r="D36">
-        <v>56205</v>
+        <f t="shared" ref="B36" si="9">$O$30+$S$31</f>
+        <v>99.5</v>
       </c>
       <c r="E36">
-        <v>977</v>
+        <v>839</v>
       </c>
       <c r="G36">
         <v>814</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="R36" s="1"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37">
-        <f xml:space="preserve"> N30 + 45</f>
-        <v>107.5</v>
+        <f t="shared" si="7"/>
+        <v>109</v>
       </c>
       <c r="B37">
-        <f>O30+112.5</f>
-        <v>140.5</v>
-      </c>
-      <c r="C37">
-        <v>42497</v>
-      </c>
-      <c r="D37">
-        <v>60076</v>
+        <f t="shared" ref="B37" si="10">$O$30+$T$31</f>
+        <v>144.5</v>
       </c>
       <c r="E37">
-        <v>667</v>
+        <v>644</v>
       </c>
       <c r="G37">
         <v>221</v>
       </c>
-      <c r="M37" t="s">
-        <v>22</v>
-      </c>
-      <c r="N37" t="s">
-        <v>17</v>
-      </c>
-      <c r="O37" t="s">
-        <v>18</v>
-      </c>
-      <c r="P37" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R37" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38">
-        <f>N30 + 90</f>
-        <v>152.5</v>
+        <f>$N$30 + 90</f>
+        <v>154</v>
       </c>
       <c r="B38">
-        <f>O30 - 22.5</f>
-        <v>5.5</v>
-      </c>
-      <c r="C38">
-        <v>39239</v>
-      </c>
-      <c r="D38">
-        <v>44854</v>
+        <f t="shared" ref="B38" si="11">$O$30 +$Q$31</f>
+        <v>9.5</v>
       </c>
       <c r="E38">
-        <v>221</v>
+        <v>424</v>
       </c>
       <c r="G38">
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39">
-        <f>N30 + 90</f>
-        <v>152.5</v>
+        <f t="shared" ref="A39:A41" si="12">$N$30 + 90</f>
+        <v>154</v>
       </c>
       <c r="B39">
-        <f>O30+22.5</f>
-        <v>50.5</v>
-      </c>
-      <c r="C39">
-        <v>39520</v>
-      </c>
-      <c r="D39">
-        <v>48378</v>
+        <f t="shared" ref="B39" si="13">$O$30+$R$31</f>
+        <v>54.5</v>
       </c>
       <c r="E39">
-        <v>780</v>
+        <v>168</v>
       </c>
       <c r="G39">
         <v>259</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40">
-        <f>N30 + 90</f>
-        <v>152.5</v>
+        <f t="shared" si="12"/>
+        <v>154</v>
       </c>
       <c r="B40">
-        <f>O30+67.5</f>
-        <v>95.5</v>
-      </c>
-      <c r="C40">
-        <v>39235</v>
-      </c>
-      <c r="D40">
-        <v>55742</v>
+        <f t="shared" ref="B40" si="14">$O$30+$S$31</f>
+        <v>99.5</v>
       </c>
       <c r="E40">
-        <v>893</v>
+        <v>1688</v>
       </c>
       <c r="G40">
         <v>969</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41">
-        <f>N30 + 90</f>
-        <v>152.5</v>
+        <f t="shared" si="12"/>
+        <v>154</v>
       </c>
       <c r="B41">
-        <f>O30+112.5</f>
-        <v>140.5</v>
-      </c>
-      <c r="C41">
-        <v>39334</v>
-      </c>
-      <c r="D41">
-        <v>59541</v>
+        <f t="shared" ref="B41" si="15">$O$30+$T$31</f>
+        <v>144.5</v>
       </c>
       <c r="E41">
-        <v>1212</v>
+        <v>2021</v>
       </c>
       <c r="G41">
         <v>846</v>
       </c>
     </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <f>$N$30 - 45</f>
+        <v>19</v>
+      </c>
+      <c r="B46">
+        <f>$O$30 +$Q$31</f>
+        <v>9.5</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <f t="shared" ref="A47:A49" si="16">$N$30 - 45</f>
+        <v>19</v>
+      </c>
+      <c r="B47">
+        <f>$O$30+$R$31</f>
+        <v>54.5</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <f t="shared" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="B48">
+        <f>$O$30+$S$31</f>
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <f t="shared" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="B49">
+        <f>$O$30+$T$31</f>
+        <v>144.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <f xml:space="preserve"> $N$30 - 0</f>
+        <v>64</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ref="B50" si="17">$O$30 +$Q$31</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <f t="shared" ref="A51:A53" si="18" xml:space="preserve"> $N$30 - 0</f>
+        <v>64</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ref="B51" si="19">$O$30+$R$31</f>
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <f t="shared" si="18"/>
+        <v>64</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ref="B52" si="20">$O$30+$S$31</f>
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <f t="shared" si="18"/>
+        <v>64</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ref="B53" si="21">$O$30+$T$31</f>
+        <v>144.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <f xml:space="preserve"> $N$30 + 45</f>
+        <v>109</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ref="B54" si="22">$O$30 +$Q$31</f>
+        <v>9.5</v>
+      </c>
+      <c r="S54" t="s">
+        <v>22</v>
+      </c>
+      <c r="T54" t="s">
+        <v>17</v>
+      </c>
+      <c r="U54" t="s">
+        <v>18</v>
+      </c>
+      <c r="V54" t="s">
+        <v>19</v>
+      </c>
+      <c r="W54" t="s">
+        <v>20</v>
+      </c>
+      <c r="X54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <f t="shared" ref="A55:A57" si="23" xml:space="preserve"> $N$30 + 45</f>
+        <v>109</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ref="B55" si="24">$O$30+$R$31</f>
+        <v>54.5</v>
+      </c>
+      <c r="T55" s="1" t="e">
+        <f>(E47+E57-E49-E55)/(E47+E49+E55+E57)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U55" s="1" t="e">
+        <f>(E46+E56-E48-E54)/(E46+E48+E54+E56)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V55" t="e">
+        <f>(E51+E61-E53-E59)/(E51+E53+E59+E61)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W55" t="e">
+        <f>(E50+E60-E52-E58)/(E50+E52+E58+E60)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X55" s="1" t="e">
+        <f>ABS(T55-U55)+ABS(V55+W55)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <f t="shared" si="23"/>
+        <v>109</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ref="B56" si="25">$O$30+$S$31</f>
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <f t="shared" si="23"/>
+        <v>109</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ref="B57" si="26">$O$30+$T$31</f>
+        <v>144.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <f>$N$30 + 90</f>
+        <v>154</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ref="B58" si="27">$O$30 +$Q$31</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <f t="shared" ref="A59:A61" si="28">$N$30 + 90</f>
+        <v>154</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ref="B59" si="29">$O$30+$R$31</f>
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <f t="shared" si="28"/>
+        <v>154</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ref="B60" si="30">$O$30+$S$31</f>
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <f t="shared" si="28"/>
+        <v>154</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ref="B61" si="31">$O$30+$T$31</f>
+        <v>144.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <f>$N$30 - 45</f>
+        <v>19</v>
+      </c>
+      <c r="B66">
+        <f>$O$30 +$Q$31</f>
+        <v>9.5</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <f t="shared" ref="A67:A69" si="32">$N$30 - 45</f>
+        <v>19</v>
+      </c>
+      <c r="B67">
+        <f>$O$30+$R$31</f>
+        <v>54.5</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <f t="shared" si="32"/>
+        <v>19</v>
+      </c>
+      <c r="B68">
+        <f>$O$30+$S$31</f>
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <f t="shared" si="32"/>
+        <v>19</v>
+      </c>
+      <c r="B69">
+        <f>$O$30+$T$31</f>
+        <v>144.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <f xml:space="preserve"> $N$30 - 0</f>
+        <v>64</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ref="B70" si="33">$O$30 +$Q$31</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <f t="shared" ref="A71:A73" si="34" xml:space="preserve"> $N$30 - 0</f>
+        <v>64</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ref="B71" si="35">$O$30+$R$31</f>
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <f t="shared" si="34"/>
+        <v>64</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ref="B72" si="36">$O$30+$S$31</f>
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <f t="shared" si="34"/>
+        <v>64</v>
+      </c>
+      <c r="B73">
+        <f t="shared" ref="B73" si="37">$O$30+$T$31</f>
+        <v>144.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <f xml:space="preserve"> $N$30 + 45</f>
+        <v>109</v>
+      </c>
+      <c r="B74">
+        <f t="shared" ref="B74" si="38">$O$30 +$Q$31</f>
+        <v>9.5</v>
+      </c>
+      <c r="S74" t="s">
+        <v>22</v>
+      </c>
+      <c r="T74" t="s">
+        <v>17</v>
+      </c>
+      <c r="U74" t="s">
+        <v>18</v>
+      </c>
+      <c r="V74" t="s">
+        <v>19</v>
+      </c>
+      <c r="W74" t="s">
+        <v>20</v>
+      </c>
+      <c r="X74" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <f t="shared" ref="A75:A77" si="39" xml:space="preserve"> $N$30 + 45</f>
+        <v>109</v>
+      </c>
+      <c r="B75">
+        <f t="shared" ref="B75" si="40">$O$30+$R$31</f>
+        <v>54.5</v>
+      </c>
+      <c r="T75" s="1" t="e">
+        <f>(E67+E77-E69-E75)/(E67+E69+E75+E77)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U75" s="1" t="e">
+        <f>(E66+E76-E68-E74)/(E66+E68+E74+E76)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V75" t="e">
+        <f>(E71+E81-E73-E79)/(E71+E73+E79+E81)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W75" t="e">
+        <f>(E70+E80-E72-E78)/(E70+E72+E78+E80)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X75" s="1" t="e">
+        <f>ABS(T75-U75)+ABS(V75+W75)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <f t="shared" si="39"/>
+        <v>109</v>
+      </c>
+      <c r="B76">
+        <f t="shared" ref="B76" si="41">$O$30+$S$31</f>
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <f t="shared" si="39"/>
+        <v>109</v>
+      </c>
+      <c r="B77">
+        <f t="shared" ref="B77" si="42">$O$30+$T$31</f>
+        <v>144.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <f>$N$30 + 90</f>
+        <v>154</v>
+      </c>
+      <c r="B78">
+        <f t="shared" ref="B78" si="43">$O$30 +$Q$31</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <f t="shared" ref="A79:A81" si="44">$N$30 + 90</f>
+        <v>154</v>
+      </c>
+      <c r="B79">
+        <f t="shared" ref="B79" si="45">$O$30+$R$31</f>
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <f t="shared" si="44"/>
+        <v>154</v>
+      </c>
+      <c r="B80">
+        <f t="shared" ref="B80" si="46">$O$30+$S$31</f>
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <f t="shared" si="44"/>
+        <v>154</v>
+      </c>
+      <c r="B81">
+        <f t="shared" ref="B81" si="47">$O$30+$T$31</f>
+        <v>144.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <f>$N$30 - 45</f>
+        <v>19</v>
+      </c>
+      <c r="B86">
+        <f>$O$30 +$Q$31</f>
+        <v>9.5</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <f t="shared" ref="A87:A89" si="48">$N$30 - 45</f>
+        <v>19</v>
+      </c>
+      <c r="B87">
+        <f>$O$30+$R$31</f>
+        <v>54.5</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <f t="shared" si="48"/>
+        <v>19</v>
+      </c>
+      <c r="B88">
+        <f>$O$30+$S$31</f>
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <f t="shared" si="48"/>
+        <v>19</v>
+      </c>
+      <c r="B89">
+        <f>$O$30+$T$31</f>
+        <v>144.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <f xml:space="preserve"> $N$30 - 0</f>
+        <v>64</v>
+      </c>
+      <c r="B90">
+        <f t="shared" ref="B90" si="49">$O$30 +$Q$31</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <f t="shared" ref="A91:A93" si="50" xml:space="preserve"> $N$30 - 0</f>
+        <v>64</v>
+      </c>
+      <c r="B91">
+        <f t="shared" ref="B91" si="51">$O$30+$R$31</f>
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <f t="shared" si="50"/>
+        <v>64</v>
+      </c>
+      <c r="B92">
+        <f t="shared" ref="B92" si="52">$O$30+$S$31</f>
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <f t="shared" si="50"/>
+        <v>64</v>
+      </c>
+      <c r="B93">
+        <f t="shared" ref="B93" si="53">$O$30+$T$31</f>
+        <v>144.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <f xml:space="preserve"> $N$30 + 45</f>
+        <v>109</v>
+      </c>
+      <c r="B94">
+        <f t="shared" ref="B94" si="54">$O$30 +$Q$31</f>
+        <v>9.5</v>
+      </c>
+      <c r="S94" t="s">
+        <v>22</v>
+      </c>
+      <c r="T94" t="s">
+        <v>17</v>
+      </c>
+      <c r="U94" t="s">
+        <v>18</v>
+      </c>
+      <c r="V94" t="s">
+        <v>19</v>
+      </c>
+      <c r="W94" t="s">
+        <v>20</v>
+      </c>
+      <c r="X94" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <f t="shared" ref="A95:A97" si="55" xml:space="preserve"> $N$30 + 45</f>
+        <v>109</v>
+      </c>
+      <c r="B95">
+        <f t="shared" ref="B95" si="56">$O$30+$R$31</f>
+        <v>54.5</v>
+      </c>
+      <c r="T95" s="1" t="e">
+        <f>(E87+E97-E89-E95)/(E87+E89+E95+E97)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U95" s="1" t="e">
+        <f>(E86+E96-E88-E94)/(E86+E88+E94+E96)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V95" t="e">
+        <f>(E91+E101-E93-E99)/(E91+E93+E99+E101)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W95" t="e">
+        <f>(E90+E100-E92-E98)/(E90+E92+E98+E100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X95" s="1" t="e">
+        <f>ABS(T95-U95)+ABS(V95+W95)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <f t="shared" si="55"/>
+        <v>109</v>
+      </c>
+      <c r="B96">
+        <f t="shared" ref="B96" si="57">$O$30+$S$31</f>
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <f t="shared" si="55"/>
+        <v>109</v>
+      </c>
+      <c r="B97">
+        <f t="shared" ref="B97" si="58">$O$30+$T$31</f>
+        <v>144.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <f>$N$30 + 90</f>
+        <v>154</v>
+      </c>
+      <c r="B98">
+        <f t="shared" ref="B98" si="59">$O$30 +$Q$31</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <f t="shared" ref="A99:A101" si="60">$N$30 + 90</f>
+        <v>154</v>
+      </c>
+      <c r="B99">
+        <f t="shared" ref="B99" si="61">$O$30+$R$31</f>
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <f t="shared" si="60"/>
+        <v>154</v>
+      </c>
+      <c r="B100">
+        <f t="shared" ref="B100" si="62">$O$30+$S$31</f>
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <f t="shared" si="60"/>
+        <v>154</v>
+      </c>
+      <c r="B101">
+        <f t="shared" ref="B101" si="63">$O$30+$T$31</f>
+        <v>144.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H107" s="3"/>
+      <c r="I107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>10</v>
+      </c>
+      <c r="C110">
+        <v>10</v>
+      </c>
+      <c r="E110">
+        <v>10</v>
+      </c>
+      <c r="G110">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>20</v>
+      </c>
+      <c r="C111">
+        <v>20</v>
+      </c>
+      <c r="E111">
+        <v>20</v>
+      </c>
+      <c r="G111">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>30</v>
+      </c>
+      <c r="C112">
+        <v>30</v>
+      </c>
+      <c r="E112">
+        <v>30</v>
+      </c>
+      <c r="G112">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>40</v>
+      </c>
+      <c r="C113">
+        <v>40</v>
+      </c>
+      <c r="E113">
+        <v>40</v>
+      </c>
+      <c r="G113">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>50</v>
+      </c>
+      <c r="C114">
+        <v>50</v>
+      </c>
+      <c r="E114">
+        <v>50</v>
+      </c>
+      <c r="G114">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>60</v>
+      </c>
+      <c r="C115">
+        <v>60</v>
+      </c>
+      <c r="E115">
+        <v>60</v>
+      </c>
+      <c r="G115">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>70</v>
+      </c>
+      <c r="C116">
+        <v>70</v>
+      </c>
+      <c r="E116">
+        <v>70</v>
+      </c>
+      <c r="G116">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>80</v>
+      </c>
+      <c r="C117">
+        <v>80</v>
+      </c>
+      <c r="E117">
+        <v>80</v>
+      </c>
+      <c r="G117">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>90</v>
+      </c>
+      <c r="C118">
+        <v>90</v>
+      </c>
+      <c r="E118">
+        <v>90</v>
+      </c>
+      <c r="G118">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>100</v>
+      </c>
+      <c r="C119">
+        <v>100</v>
+      </c>
+      <c r="E119">
+        <v>100</v>
+      </c>
+      <c r="G119">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>110</v>
+      </c>
+      <c r="C120">
+        <v>110</v>
+      </c>
+      <c r="E120">
+        <v>110</v>
+      </c>
+      <c r="G120">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="C121">
+        <v>120</v>
+      </c>
+      <c r="E121">
+        <v>120</v>
+      </c>
+      <c r="G121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>130</v>
+      </c>
+      <c r="C122">
+        <v>130</v>
+      </c>
+      <c r="E122">
+        <v>130</v>
+      </c>
+      <c r="G122">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>140</v>
+      </c>
+      <c r="C123">
+        <v>140</v>
+      </c>
+      <c r="E123">
+        <v>140</v>
+      </c>
+      <c r="G123">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>150</v>
+      </c>
+      <c r="C124">
+        <v>150</v>
+      </c>
+      <c r="E124">
+        <v>150</v>
+      </c>
+      <c r="G124">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>160</v>
+      </c>
+      <c r="C125">
+        <v>160</v>
+      </c>
+      <c r="E125">
+        <v>160</v>
+      </c>
+      <c r="G125">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>170</v>
+      </c>
+      <c r="C126">
+        <v>170</v>
+      </c>
+      <c r="E126">
+        <v>170</v>
+      </c>
+      <c r="G126">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>180</v>
+      </c>
+      <c r="C127">
+        <v>180</v>
+      </c>
+      <c r="E127">
+        <v>180</v>
+      </c>
+      <c r="G127">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A106:E106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="G107:H107"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
